--- a/data_exp2/旋转成分矩阵.xlsx
+++ b/data_exp2/旋转成分矩阵.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6913634557695313</v>
+        <v>0.6913634557695318</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05823108357173578</v>
+        <v>-0.05823108357173513</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4016788611140399</v>
+        <v>0.4016788611140396</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1405860600345415</v>
+        <v>-0.1405860600345416</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9461755856398539</v>
+        <v>0.9461755856398545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2193328963919013</v>
+        <v>0.2193328963919018</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.007916353300619268</v>
+        <v>-0.007916353300619053</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03731675949219793</v>
+        <v>-0.03731675949219761</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2058917781095849</v>
+        <v>0.2058917781095851</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.004604796188617989</v>
+        <v>-0.004604796188616974</v>
       </c>
       <c r="D4" t="n">
         <v>0.9289021163326031</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.134148029859907</v>
+        <v>-0.134148029859908</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8746508937195064</v>
+        <v>0.8746508937195066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2217950130496815</v>
+        <v>0.2217950130496821</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2237469795034595</v>
+        <v>0.2237469795034599</v>
       </c>
       <c r="E5" t="n">
         <v>0.1324020928101597</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8770563159301715</v>
+        <v>0.8770563159301719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03402355435628349</v>
+        <v>0.03402355435628394</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07317490448698125</v>
+        <v>0.07317490448698145</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1590883641980364</v>
+        <v>0.1590883641980367</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6135563140616089</v>
+        <v>0.613556314061609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1260145248279137</v>
+        <v>0.1260145248279147</v>
       </c>
       <c r="D7" t="n">
-        <v>0.722656992643551</v>
+        <v>0.7226569926435512</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1035747252022668</v>
+        <v>0.1035747252022662</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1411800875143762</v>
+        <v>0.141180087514376</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2013925806056741</v>
+        <v>-0.2013925806056747</v>
       </c>
       <c r="D8" t="n">
         <v>-0.3141770626184274</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8056872355028374</v>
+        <v>0.8056872355028378</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6858753879128828</v>
+        <v>0.6858753879128829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4026898174399933</v>
+        <v>0.402689817439994</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3101813765369556</v>
+        <v>0.310181376536956</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1750358553654559</v>
+        <v>0.1750358553654557</v>
       </c>
     </row>
     <row r="10">
@@ -614,16 +614,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.681231991702693</v>
+        <v>0.6812319917026939</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3473334189019323</v>
+        <v>-0.347333418901932</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1846048676266518</v>
+        <v>0.1846048676266516</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1629299134605638</v>
+        <v>-0.1629299134605636</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.052821807384074</v>
+        <v>-0.05282180738407424</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3129275088565266</v>
+        <v>-0.3129275088565268</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1521371907804221</v>
+        <v>0.152137190780422</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8734834402460792</v>
+        <v>0.8734834402460789</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6846908110723015</v>
+        <v>0.6846908110723025</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4622814400734261</v>
+        <v>-0.4622814400734258</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2571834734541093</v>
+        <v>0.257183473454109</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1213131966350247</v>
+        <v>-0.1213131966350244</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01641767734326975</v>
+        <v>0.01641767734326944</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8749578200607461</v>
+        <v>0.8749578200607467</v>
       </c>
       <c r="D13" t="n">
-        <v>0.11935814569052</v>
+        <v>0.1193581456905202</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.293732313087532</v>
+        <v>-0.2937323130875324</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1683403021510357</v>
+        <v>0.1683403021510356</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8222701573079941</v>
+        <v>0.8222701573079945</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0229516761474277</v>
+        <v>-0.02295167614742738</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3370977014220913</v>
+        <v>-0.3370977014220914</v>
       </c>
     </row>
   </sheetData>
